--- a/doc/ショッピングカート詳細設計.xlsx
+++ b/doc/ショッピングカート詳細設計.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\systena\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades-2019-06-java-win-64bit-jre_20190630 (2)\pleiades\eclipse\研修用\SpringTest-3\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12180" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="4" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="49">
   <si>
     <t>詳細設計書</t>
     <rPh sb="0" eb="2">
@@ -503,6 +503,29 @@
     </rPh>
     <rPh sb="15" eb="17">
       <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>合計金額を計算する</t>
+    <rPh sb="0" eb="2">
+      <t>ゴウケイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キンガク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ケイサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>合計金額をmavに設定する</t>
+    <rPh sb="0" eb="4">
+      <t>ゴウケイキンガク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>セッテイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -625,7 +648,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -641,6 +664,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -770,7 +799,7 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -870,6 +899,9 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -879,7 +911,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3371,15 +3403,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>38101</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3388,7 +3420,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3286125" y="4772025"/>
+          <a:off x="3257550" y="5791200"/>
           <a:ext cx="2581276" cy="819150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4633,26 +4665,26 @@
       <c r="P9" s="14"/>
     </row>
     <row r="11" spans="5:16" x14ac:dyDescent="0.15">
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="33"/>
-      <c r="L11" s="33"/>
-      <c r="M11" s="33"/>
-      <c r="N11" s="33"/>
-      <c r="O11" s="33"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="34"/>
+      <c r="O11" s="34"/>
     </row>
     <row r="12" spans="5:16" x14ac:dyDescent="0.15">
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="33"/>
-      <c r="L12" s="33"/>
-      <c r="M12" s="33"/>
-      <c r="N12" s="33"/>
-      <c r="O12" s="33"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="34"/>
+      <c r="N12" s="34"/>
+      <c r="O12" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4832,7 +4864,7 @@
   <dimension ref="C3:P30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4857,101 +4889,101 @@
       </c>
     </row>
     <row r="5" spans="9:16" x14ac:dyDescent="0.15">
-      <c r="O5" s="35" t="s">
+      <c r="O5" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="P5" s="34" t="s">
+      <c r="P5" s="35" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="6" spans="9:16" x14ac:dyDescent="0.15">
-      <c r="O6" s="35"/>
-      <c r="P6" s="35"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
     </row>
     <row r="7" spans="9:16" x14ac:dyDescent="0.15">
-      <c r="O7" s="35"/>
-      <c r="P7" s="35"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="36"/>
     </row>
     <row r="8" spans="9:16" x14ac:dyDescent="0.15">
-      <c r="O8" s="35" t="s">
+      <c r="O8" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="P8" s="34" t="s">
+      <c r="P8" s="35" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="9" spans="9:16" x14ac:dyDescent="0.15">
       <c r="K9" s="2"/>
-      <c r="O9" s="35"/>
-      <c r="P9" s="35"/>
+      <c r="O9" s="36"/>
+      <c r="P9" s="36"/>
     </row>
     <row r="10" spans="9:16" x14ac:dyDescent="0.15">
-      <c r="O10" s="35"/>
-      <c r="P10" s="35"/>
+      <c r="O10" s="36"/>
+      <c r="P10" s="36"/>
     </row>
     <row r="11" spans="9:16" x14ac:dyDescent="0.15">
-      <c r="O11" s="35" t="s">
+      <c r="O11" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="P11" s="34" t="s">
+      <c r="P11" s="35" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="12" spans="9:16" x14ac:dyDescent="0.15">
-      <c r="O12" s="35"/>
-      <c r="P12" s="35"/>
+      <c r="O12" s="36"/>
+      <c r="P12" s="36"/>
     </row>
     <row r="13" spans="9:16" x14ac:dyDescent="0.15">
-      <c r="O13" s="35"/>
-      <c r="P13" s="35"/>
+      <c r="O13" s="36"/>
+      <c r="P13" s="36"/>
     </row>
     <row r="14" spans="9:16" x14ac:dyDescent="0.15">
-      <c r="O14" s="35" t="s">
+      <c r="O14" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="P14" s="34" t="s">
+      <c r="P14" s="35" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="15" spans="9:16" x14ac:dyDescent="0.15">
-      <c r="O15" s="35"/>
-      <c r="P15" s="35"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="36"/>
     </row>
     <row r="16" spans="9:16" x14ac:dyDescent="0.15">
-      <c r="O16" s="35"/>
-      <c r="P16" s="35"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="36"/>
     </row>
     <row r="17" spans="3:16" x14ac:dyDescent="0.15">
-      <c r="O17" s="35" t="s">
+      <c r="O17" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="P17" s="34" t="s">
+      <c r="P17" s="35" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="18" spans="3:16" x14ac:dyDescent="0.15">
-      <c r="O18" s="35"/>
-      <c r="P18" s="35"/>
+      <c r="O18" s="36"/>
+      <c r="P18" s="36"/>
     </row>
     <row r="19" spans="3:16" x14ac:dyDescent="0.15">
-      <c r="O19" s="35"/>
-      <c r="P19" s="35"/>
+      <c r="O19" s="36"/>
+      <c r="P19" s="36"/>
     </row>
     <row r="20" spans="3:16" x14ac:dyDescent="0.15">
-      <c r="O20" s="35" t="s">
+      <c r="O20" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="P20" s="34" t="s">
+      <c r="P20" s="35" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="21" spans="3:16" x14ac:dyDescent="0.15">
-      <c r="O21" s="35"/>
-      <c r="P21" s="35"/>
+      <c r="O21" s="36"/>
+      <c r="P21" s="36"/>
     </row>
     <row r="22" spans="3:16" x14ac:dyDescent="0.15">
-      <c r="O22" s="35"/>
-      <c r="P22" s="35"/>
+      <c r="O22" s="36"/>
+      <c r="P22" s="36"/>
     </row>
     <row r="24" spans="3:16" x14ac:dyDescent="0.15">
       <c r="O24" t="s">
@@ -4987,10 +5019,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D7:Z27"/>
+  <dimension ref="D7:Z32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+      <selection activeCell="N41" sqref="N41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5026,18 +5058,28 @@
       </c>
     </row>
     <row r="21" spans="4:11" x14ac:dyDescent="0.15">
-      <c r="K21" s="36" t="s">
+      <c r="K21" s="33" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="24" spans="4:11" x14ac:dyDescent="0.15">
-      <c r="K24" s="36" t="s">
+      <c r="K24" s="33" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="27" spans="4:11" x14ac:dyDescent="0.15">
-      <c r="K27" s="36" t="s">
+      <c r="K27" s="33" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="4:11" x14ac:dyDescent="0.15">
+      <c r="K30" s="37" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="4:11" x14ac:dyDescent="0.15">
+      <c r="K32" s="37" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -5052,7 +5094,7 @@
   <dimension ref="D7:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5083,7 +5125,7 @@
       </c>
     </row>
     <row r="16" spans="4:11" x14ac:dyDescent="0.15">
-      <c r="K16" s="36" t="s">
+      <c r="K16" s="33" t="s">
         <v>43</v>
       </c>
     </row>
